--- a/outcome/appendix/data/PHSMs/Mumps.xlsx
+++ b/outcome/appendix/data/PHSMs/Mumps.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,16 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">流行性腮腺炎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -403,6 +412,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +439,16 @@
         <v>29698.6423261093</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>17159</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5316.1848705886</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +471,16 @@
         <v>24377.7681219499</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>8018</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5285.62265190952</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +503,16 @@
         <v>32613.1877293065</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>6028</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14412.2003101735</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +535,16 @@
         <v>42551.0630393775</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>6169</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23894.3487440654</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +567,16 @@
         <v>50942.8991875437</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>9273</v>
+      </c>
+      <c r="I6" t="n">
+        <v>29077.0721131617</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +599,16 @@
         <v>51395.0399920935</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>11995</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26604.0799037053</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +631,16 @@
         <v>43811.0359112187</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>9008</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21447.0907072349</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +663,16 @@
         <v>33347.7069576166</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>10583</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8720.85340676713</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +695,16 @@
         <v>33235.9392819071</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>13212</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5487.87487800703</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +727,16 @@
         <v>35987.3247527727</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>12818</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8355.61933628429</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +759,16 @@
         <v>41121.2178550738</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>15211</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10920.0013136804</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +791,16 @@
         <v>42768.6833540141</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>11437</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16160.1437253087</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +823,16 @@
         <v>39455.2058995469</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>7078</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16060.147331621</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +855,16 @@
         <v>31613.416375204</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>4393</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9576.07581246134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +887,16 @@
         <v>38560.7090245041</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>9604</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10609.5666223545</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +919,16 @@
         <v>47797.1504792507</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>11501</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17585.7127351436</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +951,16 @@
         <v>56405.9004594788</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>11970</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25505.2561820226</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +983,16 @@
         <v>57252.3812290586</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>12015</v>
+      </c>
+      <c r="I19" t="n">
+        <v>26055.1640711502</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1015,16 @@
         <v>50034.086572922</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>9367</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21103.2481677761</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1047,16 @@
         <v>39329.3475913937</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>8353</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10987.6026521668</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1079,16 @@
         <v>38443.2559343981</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>12606</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5497.9561154567</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1111,16 @@
         <v>40907.3322738244</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>11116</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9199.18457517512</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1143,16 @@
         <v>45841.4105563822</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>11881</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13174.5412569864</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1175,16 @@
         <v>48190.4450119052</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>10892</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16328.8003232904</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1207,16 @@
         <v>44747.6079759671</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>6570</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16647.1330256975</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1239,16 @@
         <v>36094.5406693776</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>4491</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9441.79885288676</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1271,16 @@
         <v>42502.851610397</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>10001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9943.25264179047</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1303,16 @@
         <v>51421.4489962701</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>9968</v>
+      </c>
+      <c r="I29" t="n">
+        <v>18644.3383227393</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1335,16 @@
         <v>59969.4790247875</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>11151</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25830.7931033173</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1367,16 @@
         <v>60916.8227025698</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>11945</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25796.9256703464</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1399,16 @@
         <v>53699.231998633</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>9391</v>
+      </c>
+      <c r="I32" t="n">
+        <v>20894.3585249052</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1431,16 @@
         <v>42847.4017270817</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>8472</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10709.3323993489</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1463,16 @@
         <v>41769.9222416841</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>11041</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6846.36568134222</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1495,16 @@
         <v>44085.2228140663</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>9537</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10495.877737876</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1527,16 @@
         <v>48953.4333992058</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>8702</v>
+      </c>
+      <c r="I36" t="n">
+        <v>16060.1532880975</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
